--- a/biology/Botanique/Critoniopsis_sodiroi/Critoniopsis_sodiroi.xlsx
+++ b/biology/Botanique/Critoniopsis_sodiroi/Critoniopsis_sodiroi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Critoniopsis sodiroi est une espèce de plante à fleurs du genre Critoniopsis de la famille des Asteraceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Référence UICN : espèce Critoniopsis sodiroi
 Ressources relatives au vivant : Global Biodiversity Information Facility iNaturalist International Plant Names Index The Plant List Plants of the World Online Tropicos Union internationale pour la conservation de la nature World Register of Marine Species  
